--- a/Informes/Tareas 1-11-22/Tarea 1/datos graficas safety (Tarea 1).xlsx
+++ b/Informes/Tareas 1-11-22/Tarea 1/datos graficas safety (Tarea 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhsga\OneDrive\Escritorio\ODINSA\Odinsa-informes\Informes\Tareas 1-11-22\Tarea 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AEE528-1F07-4503-AC4A-384307EE6D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D6273-C05F-4473-A5E8-28C79F89CDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EAC7D7DC-EF64-4880-A1E8-68069A060305}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Passenger vehicles (a)</t>
   </si>
@@ -78,33 +78,6 @@
   </si>
   <si>
     <t>Rail</t>
-  </si>
-  <si>
-    <t>Helicopter</t>
-  </si>
-  <si>
-    <t>Uber Black</t>
-  </si>
-  <si>
-    <t>eVTOLT 2028</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>UberX</t>
-  </si>
-  <si>
-    <t>eVTOL 2034</t>
-  </si>
-  <si>
-    <t>Personal Car</t>
-  </si>
-  <si>
-    <t>eVTOL 2040</t>
-  </si>
-  <si>
-    <t>Bus</t>
   </si>
 </sst>
 </file>
@@ -183,7 +156,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,443 +1297,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Cost per mile to travel from Downtown Los</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> Angeles to Los Angeles international Airport</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$H$9:$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Helicopter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Uber Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>eVTOLT 2028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Taxi</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>UberX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>eVTOL 2034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Personal Car</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>eVTOL 2040</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Bus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$I$9:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9000000000000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B23E-4674-A3D8-A3E467906756}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
-        <c:axId val="493891695"/>
-        <c:axId val="493893359"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="493891695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="493893359"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="493893359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="493891695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1841,46 +1377,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2885,556 +2381,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3508,42 +2454,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552023A7-A244-D403-E549-E2CC65E25064}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3851,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F15144A-60CE-4903-BF76-C88DCB89FDD7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,76 +3001,40 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9">
-        <v>46</v>
-      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9">
-        <v>3.6</v>
-      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2.35</v>
-      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1.7</v>
-      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.64</v>
-      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.22</v>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="9">
-        <v>9.9000000000000005E-2</v>
-      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
